--- a/biology/Zoologie/Hersilia_savignyi/Hersilia_savignyi.xlsx
+++ b/biology/Zoologie/Hersilia_savignyi/Hersilia_savignyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hersilia savignyi est une espèce d'araignées aranéomorphes de la famille des Hersiliidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hersilia savignyi est une espèce d'araignées aranéomorphes de la famille des Hersiliidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Pakistan, au Sri Lanka, au Népal, en Birmanie et aux Philippines[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Inde, au Pakistan, au Sri Lanka, au Népal, en Birmanie et aux Philippines,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Baehr et Baehr en 1993 mesure 5,95 mm et la femelle 7,8 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Baehr et Baehr en 1993 mesure 5,95 mm et la femelle 7,8 mm.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Lucas en 1836.
-Hersilia clathrata[3] a été placée en synonymie par Baehr et Baehr en 1993[2].
-Hersilia aadi[4] a été placée en synonymie par Caleb, Pravalikha, Johnson, Manyu, Mungkung et Mathai en 2017[5].
+Hersilia clathrata a été placée en synonymie par Baehr et Baehr en 1993.
+Hersilia aadi a été placée en synonymie par Caleb, Pravalikha, Johnson, Manyu, Mungkung et Mathai en 2017.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Lucas, 1836 : « Observations sur les Araneides du genre Hersilia et description de deux espèces nouvelles appartenant a ce genre. » Magasin de zoologie, d’anatomie comparée et de paléontologie, Guérin, vol. 6, no 8, p. 1-11 (texte intégral).</t>
         </is>
